--- a/Bauteilliste_Bosch_Bussmann_Ulmi.xlsx
+++ b/Bauteilliste_Bosch_Bussmann_Ulmi.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Jonas\Desktop\glaL2 Leiterplatte\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Jonas\Desktop\glaL2-Leiterplatte\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9A696007-7A0B-4E07-91BA-08F7E53B919D}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FEA4FF90-E870-4657-939E-EAF8FB976833}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-98" yWindow="503" windowWidth="20715" windowHeight="13274" xr2:uid="{0745CA3E-26A0-4357-AF02-E204E9F44B4F}"/>
   </bookViews>
@@ -222,10 +222,6 @@
     <t xml:space="preserve">80-ESW227M050AH2AA </t>
   </si>
   <si>
-    <t xml:space="preserve">
-EEU-FR1A471</t>
-  </si>
-  <si>
     <t>Panasonic</t>
   </si>
   <si>
@@ -466,6 +462,9 @@
   </si>
   <si>
     <t>523-114-00841-68</t>
+  </si>
+  <si>
+    <t>EEU-FR1A471</t>
   </si>
 </sst>
 </file>
@@ -941,8 +940,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6AE4582F-7D63-4701-B961-00BC0E10DF36}">
   <dimension ref="A2:I58"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A34" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="D52" sqref="D52"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="D16" sqref="D16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.25"/>
@@ -986,7 +985,7 @@
     <row r="3" spans="1:8">
       <c r="A3" s="25"/>
       <c r="B3" s="25" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="C3" s="25"/>
       <c r="D3" s="25"/>
@@ -1000,19 +999,19 @@
         <v>1</v>
       </c>
       <c r="B4" s="10" t="s">
+        <v>109</v>
+      </c>
+      <c r="C4" s="9" t="s">
+        <v>70</v>
+      </c>
+      <c r="D4" s="10" t="s">
         <v>110</v>
       </c>
-      <c r="C4" s="9" t="s">
-        <v>71</v>
-      </c>
-      <c r="D4" s="10" t="s">
+      <c r="E4" s="9" t="s">
+        <v>9</v>
+      </c>
+      <c r="F4" s="11" t="s">
         <v>111</v>
-      </c>
-      <c r="E4" s="9" t="s">
-        <v>9</v>
-      </c>
-      <c r="F4" s="11" t="s">
-        <v>112</v>
       </c>
       <c r="G4" s="17">
         <v>0.76</v>
@@ -1108,19 +1107,19 @@
         <v>2</v>
       </c>
       <c r="B8" s="10" t="s">
+        <v>69</v>
+      </c>
+      <c r="C8" s="9" t="s">
         <v>70</v>
       </c>
-      <c r="C8" s="9" t="s">
-        <v>71</v>
-      </c>
       <c r="D8" s="12" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="E8" s="9" t="s">
         <v>9</v>
       </c>
       <c r="F8" s="11" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="G8" s="9">
         <v>0.14000000000000001</v>
@@ -1265,24 +1264,24 @@
         <v>0.628</v>
       </c>
     </row>
-    <row r="14" spans="1:8" s="9" customFormat="1" ht="16.5" customHeight="1">
+    <row r="14" spans="1:8" s="9" customFormat="1">
       <c r="A14" s="9">
         <v>1</v>
       </c>
       <c r="B14" s="16" t="s">
+        <v>145</v>
+      </c>
+      <c r="C14" s="9" t="s">
         <v>65</v>
       </c>
-      <c r="C14" s="9" t="s">
+      <c r="D14" s="10" t="s">
         <v>66</v>
       </c>
-      <c r="D14" s="10" t="s">
+      <c r="E14" s="9" t="s">
+        <v>9</v>
+      </c>
+      <c r="F14" s="11" t="s">
         <v>67</v>
-      </c>
-      <c r="E14" s="9" t="s">
-        <v>9</v>
-      </c>
-      <c r="F14" s="11" t="s">
-        <v>68</v>
       </c>
       <c r="G14" s="9">
         <v>0.24399999999999999</v>
@@ -1297,19 +1296,19 @@
         <v>2</v>
       </c>
       <c r="B15" s="10" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="C15" s="10" t="s">
         <v>62</v>
       </c>
       <c r="D15" s="10" t="s">
+        <v>86</v>
+      </c>
+      <c r="E15" s="10" t="s">
+        <v>9</v>
+      </c>
+      <c r="F15" s="11" t="s">
         <v>87</v>
-      </c>
-      <c r="E15" s="10" t="s">
-        <v>9</v>
-      </c>
-      <c r="F15" s="11" t="s">
-        <v>88</v>
       </c>
       <c r="G15" s="9">
         <v>7.8E-2</v>
@@ -1330,13 +1329,13 @@
         <v>26</v>
       </c>
       <c r="D16" s="10" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="E16" s="10" t="s">
         <v>8</v>
       </c>
       <c r="F16" s="11" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="G16" s="9">
         <v>0.27</v>
@@ -1351,19 +1350,19 @@
         <v>1</v>
       </c>
       <c r="B17" s="10" t="s">
+        <v>71</v>
+      </c>
+      <c r="C17" s="10" t="s">
+        <v>70</v>
+      </c>
+      <c r="D17" s="10" t="s">
+        <v>73</v>
+      </c>
+      <c r="E17" s="10" t="s">
+        <v>9</v>
+      </c>
+      <c r="F17" s="11" t="s">
         <v>72</v>
-      </c>
-      <c r="C17" s="10" t="s">
-        <v>71</v>
-      </c>
-      <c r="D17" s="10" t="s">
-        <v>74</v>
-      </c>
-      <c r="E17" s="10" t="s">
-        <v>9</v>
-      </c>
-      <c r="F17" s="11" t="s">
-        <v>73</v>
       </c>
       <c r="G17" s="9">
         <v>0.28799999999999998</v>
@@ -1378,19 +1377,19 @@
         <v>3</v>
       </c>
       <c r="B18" s="10" t="s">
+        <v>140</v>
+      </c>
+      <c r="C18" s="10" t="s">
+        <v>139</v>
+      </c>
+      <c r="D18" s="10" t="s">
+        <v>138</v>
+      </c>
+      <c r="E18" s="10" t="s">
+        <v>9</v>
+      </c>
+      <c r="F18" s="11" t="s">
         <v>141</v>
-      </c>
-      <c r="C18" s="10" t="s">
-        <v>140</v>
-      </c>
-      <c r="D18" s="10" t="s">
-        <v>139</v>
-      </c>
-      <c r="E18" s="10" t="s">
-        <v>9</v>
-      </c>
-      <c r="F18" s="11" t="s">
-        <v>142</v>
       </c>
       <c r="G18" s="9">
         <v>0.09</v>
@@ -1410,7 +1409,7 @@
     <row r="20" spans="1:8" s="2" customFormat="1">
       <c r="A20" s="25"/>
       <c r="B20" s="25" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="C20" s="25"/>
       <c r="D20" s="25"/>
@@ -1478,19 +1477,19 @@
         <v>2</v>
       </c>
       <c r="B23" s="14" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="C23" s="14" t="s">
         <v>11</v>
       </c>
       <c r="D23" s="13" t="s">
+        <v>96</v>
+      </c>
+      <c r="E23" s="14" t="s">
+        <v>9</v>
+      </c>
+      <c r="F23" s="15" t="s">
         <v>97</v>
-      </c>
-      <c r="E23" s="14" t="s">
-        <v>9</v>
-      </c>
-      <c r="F23" s="15" t="s">
-        <v>98</v>
       </c>
       <c r="G23" s="9">
         <v>0.8</v>
@@ -1505,19 +1504,19 @@
         <v>2</v>
       </c>
       <c r="B24" s="10" t="s">
+        <v>128</v>
+      </c>
+      <c r="C24" s="9" t="s">
         <v>129</v>
       </c>
-      <c r="C24" s="9" t="s">
+      <c r="D24" s="10" t="s">
         <v>130</v>
       </c>
-      <c r="D24" s="10" t="s">
+      <c r="E24" s="9" t="s">
+        <v>9</v>
+      </c>
+      <c r="F24" s="11" t="s">
         <v>131</v>
-      </c>
-      <c r="E24" s="9" t="s">
-        <v>9</v>
-      </c>
-      <c r="F24" s="11" t="s">
-        <v>132</v>
       </c>
       <c r="G24" s="17">
         <v>0.4</v>
@@ -1586,19 +1585,19 @@
         <v>1</v>
       </c>
       <c r="B27" s="10" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="C27" s="10" t="s">
+        <v>89</v>
+      </c>
+      <c r="D27" s="9" t="s">
+        <v>88</v>
+      </c>
+      <c r="E27" s="10" t="s">
+        <v>9</v>
+      </c>
+      <c r="F27" s="11" t="s">
         <v>90</v>
-      </c>
-      <c r="D27" s="9" t="s">
-        <v>89</v>
-      </c>
-      <c r="E27" s="10" t="s">
-        <v>9</v>
-      </c>
-      <c r="F27" s="11" t="s">
-        <v>91</v>
       </c>
       <c r="G27" s="9">
         <v>0.72799999999999998</v>
@@ -1615,7 +1614,7 @@
       <c r="B28" s="28"/>
       <c r="C28" s="28"/>
       <c r="D28" s="28" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="E28" s="10"/>
       <c r="F28" s="11"/>
@@ -1628,19 +1627,19 @@
         <v>1</v>
       </c>
       <c r="B29" s="10" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="C29" s="10" t="s">
         <v>32</v>
       </c>
       <c r="D29" s="10" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="E29" s="10" t="s">
         <v>9</v>
       </c>
       <c r="F29" s="11" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="G29" s="9">
         <v>5.21</v>
@@ -1686,7 +1685,7 @@
     <row r="32" spans="1:8" s="2" customFormat="1">
       <c r="A32" s="25"/>
       <c r="B32" s="25" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="C32" s="25"/>
       <c r="D32" s="25"/>
@@ -1700,25 +1699,25 @@
         <v>2</v>
       </c>
       <c r="B33" s="10" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="C33" s="9" t="s">
         <v>48</v>
       </c>
       <c r="D33" s="10" t="s">
+        <v>118</v>
+      </c>
+      <c r="E33" s="9" t="s">
+        <v>9</v>
+      </c>
+      <c r="F33" s="11" t="s">
         <v>119</v>
-      </c>
-      <c r="E33" s="9" t="s">
-        <v>9</v>
-      </c>
-      <c r="F33" s="11" t="s">
-        <v>120</v>
       </c>
       <c r="G33" s="9">
         <v>0.68</v>
       </c>
       <c r="H33" s="9">
-        <f>G33*A33</f>
+        <f t="shared" ref="H33:H38" si="3">G33*A33</f>
         <v>1.36</v>
       </c>
     </row>
@@ -1745,7 +1744,7 @@
         <v>0.11</v>
       </c>
       <c r="H34" s="9">
-        <f>G34*A34</f>
+        <f t="shared" si="3"/>
         <v>0.11</v>
       </c>
     </row>
@@ -1754,25 +1753,25 @@
         <v>1</v>
       </c>
       <c r="B35" s="10" t="s">
+        <v>124</v>
+      </c>
+      <c r="C35" s="9" t="s">
         <v>125</v>
       </c>
-      <c r="C35" s="9" t="s">
+      <c r="D35" s="10" t="s">
         <v>126</v>
       </c>
-      <c r="D35" s="10" t="s">
+      <c r="E35" s="9" t="s">
+        <v>9</v>
+      </c>
+      <c r="F35" s="11" t="s">
         <v>127</v>
-      </c>
-      <c r="E35" s="9" t="s">
-        <v>9</v>
-      </c>
-      <c r="F35" s="11" t="s">
-        <v>128</v>
       </c>
       <c r="G35" s="17">
         <v>2.46</v>
       </c>
       <c r="H35" s="9">
-        <f>G35*A35</f>
+        <f t="shared" si="3"/>
         <v>2.46</v>
       </c>
     </row>
@@ -1799,7 +1798,7 @@
         <v>6.2E-2</v>
       </c>
       <c r="H36" s="9">
-        <f>G36*A36</f>
+        <f t="shared" si="3"/>
         <v>0.186</v>
       </c>
     </row>
@@ -1808,25 +1807,25 @@
         <v>1</v>
       </c>
       <c r="B37" s="10" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="C37" s="9" t="s">
         <v>48</v>
       </c>
       <c r="D37" s="10" t="s">
+        <v>122</v>
+      </c>
+      <c r="E37" s="10" t="s">
+        <v>9</v>
+      </c>
+      <c r="F37" s="11" t="s">
         <v>123</v>
-      </c>
-      <c r="E37" s="10" t="s">
-        <v>9</v>
-      </c>
-      <c r="F37" s="11" t="s">
-        <v>124</v>
       </c>
       <c r="G37" s="17">
         <v>1.1000000000000001</v>
       </c>
       <c r="H37" s="9">
-        <f>G37*A37</f>
+        <f t="shared" si="3"/>
         <v>1.1000000000000001</v>
       </c>
     </row>
@@ -1835,25 +1834,25 @@
         <v>1</v>
       </c>
       <c r="B38" s="10" t="s">
+        <v>116</v>
+      </c>
+      <c r="C38" s="9" t="s">
         <v>117</v>
       </c>
-      <c r="C38" s="9" t="s">
-        <v>118</v>
-      </c>
       <c r="D38" s="10" t="s">
+        <v>114</v>
+      </c>
+      <c r="E38" s="10" t="s">
+        <v>9</v>
+      </c>
+      <c r="F38" s="11" t="s">
         <v>115</v>
-      </c>
-      <c r="E38" s="10" t="s">
-        <v>9</v>
-      </c>
-      <c r="F38" s="11" t="s">
-        <v>116</v>
       </c>
       <c r="G38" s="17">
         <v>0.94</v>
       </c>
       <c r="H38" s="9">
-        <f>G38*A38</f>
+        <f t="shared" si="3"/>
         <v>0.94</v>
       </c>
     </row>
@@ -1865,7 +1864,7 @@
     <row r="40" spans="1:8" s="2" customFormat="1">
       <c r="A40" s="25"/>
       <c r="B40" s="25" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="C40" s="25"/>
       <c r="D40" s="25"/>
@@ -1879,25 +1878,25 @@
         <v>8</v>
       </c>
       <c r="B41" s="10" t="s">
+        <v>132</v>
+      </c>
+      <c r="C41" s="9" t="s">
         <v>133</v>
       </c>
-      <c r="C41" s="9" t="s">
+      <c r="D41" s="10" t="s">
+        <v>135</v>
+      </c>
+      <c r="E41" s="9" t="s">
+        <v>9</v>
+      </c>
+      <c r="F41" s="11" t="s">
         <v>134</v>
-      </c>
-      <c r="D41" s="10" t="s">
-        <v>136</v>
-      </c>
-      <c r="E41" s="9" t="s">
-        <v>9</v>
-      </c>
-      <c r="F41" s="11" t="s">
-        <v>135</v>
       </c>
       <c r="G41" s="9">
         <v>0.16</v>
       </c>
       <c r="H41" s="9">
-        <f t="shared" ref="H41:H47" si="3">G41*A41</f>
+        <f t="shared" ref="H41:H47" si="4">G41*A41</f>
         <v>1.28</v>
       </c>
     </row>
@@ -1906,25 +1905,25 @@
         <v>1</v>
       </c>
       <c r="B42" s="14" t="s">
+        <v>75</v>
+      </c>
+      <c r="C42" s="14" t="s">
         <v>76</v>
       </c>
-      <c r="C42" s="14" t="s">
+      <c r="D42" s="14" t="s">
         <v>77</v>
       </c>
-      <c r="D42" s="14" t="s">
+      <c r="E42" s="14" t="s">
+        <v>9</v>
+      </c>
+      <c r="F42" s="15" t="s">
         <v>78</v>
-      </c>
-      <c r="E42" s="14" t="s">
-        <v>9</v>
-      </c>
-      <c r="F42" s="15" t="s">
-        <v>79</v>
       </c>
       <c r="G42" s="18">
         <v>2.16</v>
       </c>
       <c r="H42" s="13">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>2.16</v>
       </c>
     </row>
@@ -1933,25 +1932,25 @@
         <v>3</v>
       </c>
       <c r="B43" s="14" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="C43" s="14" t="s">
         <v>11</v>
       </c>
       <c r="D43" s="14" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="E43" s="14" t="s">
         <v>9</v>
       </c>
       <c r="F43" s="15" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="G43" s="9">
         <v>0.63700000000000001</v>
       </c>
       <c r="H43" s="9">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>1.911</v>
       </c>
     </row>
@@ -1960,25 +1959,25 @@
         <v>1</v>
       </c>
       <c r="B44" s="9" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="C44" s="9" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="D44" s="10" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="E44" s="9" t="s">
         <v>9</v>
       </c>
       <c r="F44" s="11" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="G44" s="17">
         <v>0.62</v>
       </c>
       <c r="H44" s="9">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>0.62</v>
       </c>
     </row>
@@ -1987,25 +1986,25 @@
         <v>1</v>
       </c>
       <c r="B45" s="10" t="s">
+        <v>79</v>
+      </c>
+      <c r="C45" s="9" t="s">
         <v>80</v>
       </c>
-      <c r="C45" s="9" t="s">
+      <c r="D45" s="10" t="s">
         <v>81</v>
       </c>
-      <c r="D45" s="10" t="s">
+      <c r="E45" s="9" t="s">
+        <v>9</v>
+      </c>
+      <c r="F45" s="11" t="s">
         <v>82</v>
-      </c>
-      <c r="E45" s="9" t="s">
-        <v>9</v>
-      </c>
-      <c r="F45" s="11" t="s">
-        <v>83</v>
       </c>
       <c r="G45" s="17">
         <v>2.98</v>
       </c>
       <c r="H45" s="9">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>2.98</v>
       </c>
     </row>
@@ -2017,22 +2016,22 @@
         <v>1140084168</v>
       </c>
       <c r="C46" s="9" t="s">
+        <v>143</v>
+      </c>
+      <c r="D46" s="10" t="s">
+        <v>142</v>
+      </c>
+      <c r="E46" s="9" t="s">
+        <v>9</v>
+      </c>
+      <c r="F46" s="11" t="s">
         <v>144</v>
-      </c>
-      <c r="D46" s="10" t="s">
-        <v>143</v>
-      </c>
-      <c r="E46" s="9" t="s">
-        <v>9</v>
-      </c>
-      <c r="F46" s="11" t="s">
-        <v>145</v>
       </c>
       <c r="G46" s="17">
         <v>1.29</v>
       </c>
       <c r="H46" s="9">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>1.29</v>
       </c>
     </row>
@@ -2041,19 +2040,19 @@
         <v>1</v>
       </c>
       <c r="D47" s="10" t="s">
+        <v>107</v>
+      </c>
+      <c r="E47" s="9" t="s">
         <v>108</v>
       </c>
-      <c r="E47" s="9" t="s">
-        <v>109</v>
-      </c>
       <c r="F47" s="1" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="G47" s="17">
         <v>8</v>
       </c>
       <c r="H47" s="9">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>8</v>
       </c>
     </row>
@@ -2065,7 +2064,7 @@
       <c r="E48" s="4"/>
       <c r="F48" s="6"/>
       <c r="G48" s="3" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="H48" s="3">
         <f>SUM(H12:H47)</f>
